--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_415__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_415__Reeval_Halton_Modell_1.1.xlsx
@@ -5993,49 +5993,49 @@
                   <c:v>43.21726226806641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>43.22348785400391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.2328987121582</c:v>
+                  <c:v>53.23289108276367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.603115797042847</c:v>
+                  <c:v>3.603113174438477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1087897643446922</c:v>
+                  <c:v>0.1087909936904907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.124132513999939</c:v>
+                  <c:v>0.1241288259625435</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>50.55118942260742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.20317459106445</c:v>
+                  <c:v>49.20316696166992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.334181785583496</c:v>
+                  <c:v>8.334201812744141</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2615922391414642</c:v>
+                  <c:v>0.2615934610366821</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3406260013580322</c:v>
+                  <c:v>0.3406235575675964</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>43.57672119140625</c:v>
@@ -6044,64 +6044,64 @@
                   <c:v>0.9692125916481018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>47.67203140258789</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7271826267242432</c:v>
+                  <c:v>0.7271813750267029</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>17.36036682128906</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.210127592086792</c:v>
+                  <c:v>3.210128784179688</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.584527730941772</c:v>
+                  <c:v>2.584529638290405</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.772998809814453</c:v>
+                  <c:v>4.77299165725708</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.69454574584961</c:v>
+                  <c:v>47.69453430175781</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41.18526077270508</c:v>
+                  <c:v>41.18527221679688</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.1293196082115173</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.261991262435913</c:v>
+                  <c:v>2.261998653411865</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43.69339752197266</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1.154803872108459</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.411242485046387</c:v>
+                  <c:v>6.41124153137207</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.885784149169922</c:v>
+                  <c:v>2.88577938079834</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44.08930969238281</c:v>
@@ -6110,13 +6110,13 @@
                   <c:v>48.11295318603516</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.733583450317383</c:v>
+                  <c:v>2.733581066131592</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.267470002174377</c:v>
+                  <c:v>-1.267472386360168</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3.708647966384888</c:v>
@@ -6125,25 +6125,25 @@
                   <c:v>48.94858551025391</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.101327896118164</c:v>
+                  <c:v>3.101335287094116</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-4.757310390472412</c:v>
+                  <c:v>-4.757303237915039</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.132449150085449</c:v>
+                  <c:v>4.1324462890625</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>57.42963027954102</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15.42233753204346</c:v>
+                  <c:v>15.42232704162598</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43.2637825012207</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53.94778823852539</c:v>
+                  <c:v>53.94778060913086</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2.09410572052002</c:v>
@@ -6152,49 +6152,49 @@
                   <c:v>53.94127655029297</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.25615406036377</c:v>
+                  <c:v>-4.256151676177979</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>43.69237518310547</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>48.84109497070312</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.6072672009468079</c:v>
+                  <c:v>0.6072684526443481</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43.29513549804688</c:v>
+                  <c:v>43.29512786865234</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>43.68345642089844</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.030552864074707</c:v>
+                  <c:v>1.030558943748474</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>43.83872604370117</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>44.05610656738281</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>40.16349029541016</c:v>
+                  <c:v>40.16349792480469</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>43.57024765014648</c:v>
@@ -6203,25 +6203,25 @@
                   <c:v>50.35647964477539</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>50.27763366699219</c:v>
+                  <c:v>50.27762222290039</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>53.86525726318359</c:v>
+                  <c:v>53.86524963378906</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>41.90409851074219</c:v>
+                  <c:v>41.90408706665039</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-4.882530212402344</c:v>
+                  <c:v>-4.882523059844971</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>49.45146942138672</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.144875288009644</c:v>
+                  <c:v>3.144869089126587</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>35.42799377441406</c:v>
@@ -6233,43 +6233,43 @@
                   <c:v>51.09143829345703</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>54.757080078125</c:v>
+                  <c:v>54.7570686340332</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.143371105194092</c:v>
+                  <c:v>2.14336633682251</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>30.07649230957031</c:v>
+                  <c:v>30.07648658752441</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>43.00770950317383</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.0689582824707</c:v>
+                  <c:v>18.06896781921387</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-1.13426661491394</c:v>
+                  <c:v>-1.134259223937988</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>51.10561370849609</c:v>
+                  <c:v>51.10562515258789</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.5766295790672302</c:v>
+                  <c:v>0.5766302347183228</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>43.5307502746582</c:v>
@@ -6281,10 +6281,10 @@
                   <c:v>43.49598693847656</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.740119457244873</c:v>
+                  <c:v>5.740125179290771</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.469353675842285</c:v>
+                  <c:v>2.46935248374939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>53.2328987121582</v>
+        <v>53.23289108276367</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.603115797042847</v>
+        <v>3.603113174438477</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1087897643446922</v>
+        <v>0.1087909936904907</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.124132513999939</v>
+        <v>0.1241288259625435</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>48.3736</v>
       </c>
       <c r="F15">
-        <v>49.20317459106445</v>
+        <v>49.20316696166992</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>8.334181785583496</v>
+        <v>8.334201812744141</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2615922391414642</v>
+        <v>0.2615934610366821</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3406260013580322</v>
+        <v>0.3406235575675964</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7271826267242432</v>
+        <v>0.7271813750267029</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.210127592086792</v>
+        <v>3.210128784179688</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.584527730941772</v>
+        <v>2.584529638290405</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4.772998809814453</v>
+        <v>4.77299165725708</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>47.69454574584961</v>
+        <v>47.69453430175781</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>53.1601</v>
       </c>
       <c r="F29">
-        <v>41.18526077270508</v>
+        <v>41.18527221679688</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2.261991262435913</v>
+        <v>2.261998653411865</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>6.411242485046387</v>
+        <v>6.41124153137207</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2.885784149169922</v>
+        <v>2.88577938079834</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>2.733583450317383</v>
+        <v>2.733581066131592</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-1.267470002174377</v>
+        <v>-1.267472386360168</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>3.101327896118164</v>
+        <v>3.101335287094116</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-4.757310390472412</v>
+        <v>-4.757303237915039</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>4.132449150085449</v>
+        <v>4.1324462890625</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>15.42233753204346</v>
+        <v>15.42232704162598</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>57.1504</v>
       </c>
       <c r="F54">
-        <v>53.94778823852539</v>
+        <v>53.94778060913086</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-4.25615406036377</v>
+        <v>-4.256151676177979</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.6072672009468079</v>
+        <v>0.6072684526443481</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>43.29513549804688</v>
+        <v>43.29512786865234</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.030552864074707</v>
+        <v>1.030558943748474</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>40.16349029541016</v>
+        <v>40.16349792480469</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>50.27763366699219</v>
+        <v>50.27762222290039</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>53.86525726318359</v>
+        <v>53.86524963378906</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>41.90409851074219</v>
+        <v>41.90408706665039</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>-4.882530212402344</v>
+        <v>-4.882523059844971</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>3.144875288009644</v>
+        <v>3.144869089126587</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>54.757080078125</v>
+        <v>54.7570686340332</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>2.143371105194092</v>
+        <v>2.14336633682251</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>30.07649230957031</v>
+        <v>30.07648658752441</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>18.0689582824707</v>
+        <v>18.06896781921387</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>-1.13426661491394</v>
+        <v>-1.134259223937988</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>51.10561370849609</v>
+        <v>51.10562515258789</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.5766295790672302</v>
+        <v>0.5766302347183228</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>5.740119457244873</v>
+        <v>5.740125179290771</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>2.469353675842285</v>
+        <v>2.46935248374939</v>
       </c>
     </row>
     <row r="102" spans="1:6">
